--- a/testscript/IntegrationTest.xlsx
+++ b/testscript/IntegrationTest.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>No.</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>/</t>
   </si>
   <si>
     <t>y</t>
@@ -112,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -194,13 +191,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,7 +318,7 @@
     <xf numFmtId="59" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -245,6 +329,33 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,17 +574,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -501,10 +612,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -752,12 +863,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1044,7 +1155,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1072,10 +1183,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1326,7 +1437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1385,14 +1496,12 @@
         <v>10</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" t="s" s="9">
-        <v>11</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
       <c r="H2" s="12"/>
       <c r="I2" t="s" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1">
@@ -1401,25 +1510,102 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="D3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="E3" t="s" s="9">
         <v>15</v>
-      </c>
-      <c r="E3" t="s" s="9">
-        <v>16</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" t="s" s="14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" t="s" s="13">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
